--- a/docs/Data/Chapter12DataB.xlsx
+++ b/docs/Data/Chapter12DataB.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webmailbyui-my.sharepoint.com/personal/bamidan_byui_edu/Documents/Classes/Math221/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{52085B14-3E28-4BB3-8C72-3FBCB48F48AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{BA220FE7-C73A-4714-8C58-681494ACBB24}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="315" windowWidth="14115" windowHeight="5940"/>
+    <workbookView xWindow="30" yWindow="1065" windowWidth="28770" windowHeight="15135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -27,7 +41,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -68,6 +82,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -116,7 +133,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -149,9 +166,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -184,6 +218,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -359,11 +410,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A2" sqref="A2:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,7 +429,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>30</v>
@@ -386,15 +437,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>14</v>
@@ -405,15 +456,15 @@
         <v>30</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -426,7 +477,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>13</v>
@@ -434,10 +485,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -445,7 +496,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -461,15 +512,15 @@
         <v>6</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -477,7 +528,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -485,23 +536,23 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B17">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -509,12 +560,12 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19">
         <v>14</v>
@@ -538,18 +589,18 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,7 +609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -570,7 +621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -579,4 +630,232 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EADD9745A4E4F945A0352363B7DF74C2" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="284bcf5a0b16c48695619e0a4a75eafc">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="44d8ae97-2af2-43f7-9733-81c61491267d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="77cf00eb7a2f21704c1ca1dc3b69474d" ns3:_="">
+    <xsd:import namespace="44d8ae97-2af2-43f7-9733-81c61491267d"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="44d8ae97-2af2-43f7-9733-81c61491267d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="11" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="12" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23DA3788-D44A-4F63-B962-6D6DAC8E81A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="44d8ae97-2af2-43f7-9733-81c61491267d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1851904D-2B3F-41D4-9AD1-5C7B2ED6E18A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87D8B32A-7AFA-4614-A284-3124FFBC6C82}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>